--- a/test/no_allocation_test.xlsx
+++ b/test/no_allocation_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82C382A-D037-C542-BADE-A4590B305141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE6BEE3-29A6-864D-A73F-15CCD655D50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="5280" windowWidth="22020" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="5280" windowWidth="22020" windowHeight="13300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Planned Amount</t>
   </si>
   <si>
-    <t>Latest Payment Date</t>
-  </si>
-  <si>
     <t>Funding A</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Utilities</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -462,10 +462,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>45658</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>45717</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>45870</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>45658</v>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -575,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>3000</v>
@@ -592,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -609,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -626,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>500</v>
